--- a/Data/Export/DQ-Reports_SyntheticData.xlsx
+++ b/Data/Export/DQ-Reports_SyntheticData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
   <si>
     <t xml:space="preserve">Abbreviation</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Study Name</t>
   </si>
   <si>
-    <t xml:space="preserve">SyntheticData</t>
+    <t xml:space="preserve">Data Quality Assessments on Synthetic Data</t>
   </si>
   <si>
     <t xml:space="preserve">org_id</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Report Date (refers to the date of data export)</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-01</t>
+    <t xml:space="preserve">2025-03-02</t>
   </si>
   <si>
     <t xml:space="preserve">dqi_co_icr</t>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">Execution Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
   </si>
   <si>
     <t xml:space="preserve">mnppsd</t>
@@ -594,11 +591,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,14 +794,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="4" style="1" width="9.15"/>
   </cols>
   <sheetData>
@@ -841,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1036,15 +1033,15 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.71"/>
@@ -1057,458 +1054,458 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>20170520</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>20170520</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1529,222 +1526,222 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="131.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="6" style="1" width="9.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>20170505</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>20170505</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>20170505</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>20170505</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>20170520</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>20170505</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>20170520</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>20170520</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1766,259 +1763,259 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="7" style="1" width="9.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>20170505</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>20170427</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>20170427</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2044,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="175.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="5" style="1" width="9.15"/>
   </cols>
@@ -2060,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2071,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2085,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2099,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,10 +2113,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
